--- a/config/PartTypeConfig.xlsx
+++ b/config/PartTypeConfig.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\D\work\egret\h5\jrdh\conf\input\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="12630"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" calcOnSave="0"/>
+  <calcPr calcId="144525" calcCompleted="0" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
   <si>
     <t>ID</t>
   </si>
@@ -65,7 +60,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>发  型</t>
+    <t>发   型</t>
   </si>
   <si>
     <t>common_icon_fx_png</t>
@@ -74,7 +69,7 @@
     <t>common_icon_fx_l_png</t>
   </si>
   <si>
-    <t>连衣裙</t>
+    <t>连 衣 裙</t>
   </si>
   <si>
     <t>common_icon_lyq_png</t>
@@ -83,7 +78,7 @@
     <t>common_icon_lyq_l_png</t>
   </si>
   <si>
-    <t>上  衣</t>
+    <t>上   衣</t>
   </si>
   <si>
     <t>common_icon_sy_png</t>
@@ -92,7 +87,7 @@
     <t>common_icon_sy_l_png</t>
   </si>
   <si>
-    <t>下  装</t>
+    <t>下   装</t>
   </si>
   <si>
     <t>common_icon_kz_png</t>
@@ -101,7 +96,7 @@
     <t>common_icon_kz_l_png</t>
   </si>
   <si>
-    <t>袜  子</t>
+    <t>袜   子</t>
   </si>
   <si>
     <t>common_icon_wz_png</t>
@@ -110,7 +105,7 @@
     <t>common_icon_wz_l_png</t>
   </si>
   <si>
-    <t>鞋  子</t>
+    <t>鞋   子</t>
   </si>
   <si>
     <t>common_icon_xz_png</t>
@@ -119,7 +114,7 @@
     <t>common_icon_xz_l_png</t>
   </si>
   <si>
-    <t>饰  品</t>
+    <t>饰   品</t>
   </si>
   <si>
     <t>common_icon_sp_png</t>
@@ -152,8 +147,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -167,12 +168,158 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,8 +332,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -209,9 +542,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -235,10 +810,57 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
@@ -311,9 +933,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1384,22 +2003,22 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IR18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="23.875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="6.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="3" customWidth="1"/>
     <col min="3" max="3" width="9.625" style="3" customWidth="1"/>
     <col min="4" max="5" width="20.5" style="3" customWidth="1"/>
     <col min="6" max="6" width="19.75" style="3" customWidth="1"/>
@@ -1407,7 +2026,7 @@
     <col min="253" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1427,7 +2046,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" ht="15.95" customHeight="1" spans="1:6">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -1447,7 +2066,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" ht="15.95" customHeight="1" spans="1:6">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -1467,7 +2086,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" ht="15.95" customHeight="1" spans="1:6">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1487,7 +2106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" ht="15.95" customHeight="1" spans="1:6">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -1507,7 +2126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" ht="15.95" customHeight="1" spans="1:6">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -1527,7 +2146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" ht="15.95" customHeight="1" spans="1:6">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -1547,7 +2166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" ht="15.95" customHeight="1" spans="1:6">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -1567,7 +2186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" ht="15.95" customHeight="1" spans="1:6">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -1587,7 +2206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" ht="15.95" customHeight="1" spans="1:6">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -1607,7 +2226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -1621,7 +2240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" customHeight="1" spans="1:6">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -1635,7 +2254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" customHeight="1" spans="1:6">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -1649,7 +2268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" customHeight="1" spans="1:6">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -1663,7 +2282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" customHeight="1" spans="1:6">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -1677,7 +2296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" customHeight="1" spans="1:6">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -1691,7 +2310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" customHeight="1" spans="1:6">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -1705,15 +2324,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" customHeight="1" spans="6:6">
       <c r="F18" s="3">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1721,80 +2339,83 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" customHeight="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="256" width="8.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="15.95" customHeight="1" spans="1:5">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" ht="15.95" customHeight="1" spans="1:5">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" ht="15.95" customHeight="1" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" ht="15.95" customHeight="1" spans="1:5">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" ht="15.95" customHeight="1" spans="1:5">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" ht="15.95" customHeight="1" spans="1:5">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" ht="15.95" customHeight="1" spans="1:5">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" ht="15.95" customHeight="1" spans="1:5">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" ht="15.95" customHeight="1" spans="1:5">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" ht="15.95" customHeight="1" spans="1:5">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1802,9 +2423,8 @@
       <c r="E10" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1812,80 +2432,83 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" customHeight="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="256" width="8.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="15.95" customHeight="1" spans="1:5">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" ht="15.95" customHeight="1" spans="1:5">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" ht="15.95" customHeight="1" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" ht="15.95" customHeight="1" spans="1:5">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" ht="15.95" customHeight="1" spans="1:5">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" ht="15.95" customHeight="1" spans="1:5">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" ht="15.95" customHeight="1" spans="1:5">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" ht="15.95" customHeight="1" spans="1:5">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" ht="15.95" customHeight="1" spans="1:5">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" ht="15.95" customHeight="1" spans="1:5">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1893,9 +2516,8 @@
       <c r="E10" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
